--- a/比赛记录/2024 APMCM/数据/灰色关联度.xlsx
+++ b/比赛记录/2024 APMCM/数据/灰色关联度.xlsx
@@ -27,42 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Cat（万只）</t>
+    <t>Cat</t>
   </si>
   <si>
-    <t>Dog（万只）</t>
+    <t>Dog</t>
   </si>
   <si>
-    <t>宠物行业市场规模</t>
+    <t>Market Size</t>
   </si>
   <si>
-    <t>宠物食物市场规模</t>
+    <t>GDP</t>
   </si>
   <si>
-    <t>GDP（国内生产总值/亿元）</t>
+    <t xml:space="preserve">Per Capita Disposable Income </t>
   </si>
   <si>
-    <t>居民人均可支配收入(元)</t>
+    <t xml:space="preserve">Total Population </t>
   </si>
   <si>
-    <t>居民恩格尔系数(%)</t>
+    <t>Population Aged 65 and Above</t>
   </si>
   <si>
-    <t>总人口数（万人）</t>
+    <t>Urbanization Rate</t>
   </si>
   <si>
-    <t>65岁及以上人口(万人)</t>
-  </si>
-  <si>
-    <t>结婚登记（万对）</t>
-  </si>
-  <si>
-    <t>出生率（百分比）</t>
-  </si>
-  <si>
-    <t>城镇化率（百分比）</t>
+    <t>Hospital number</t>
   </si>
 </sst>
 </file>
@@ -76,14 +67,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,148 +523,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,18 +990,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,17 +1029,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>4412</v>
       </c>
@@ -1065,35 +1040,26 @@
       <c r="C2">
         <v>2191</v>
       </c>
-      <c r="D2">
-        <v>116.4</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>986515.2</v>
       </c>
+      <c r="E2">
+        <v>30733</v>
+      </c>
       <c r="F2">
-        <v>30733</v>
+        <v>141008</v>
       </c>
       <c r="G2">
-        <v>28.2</v>
+        <v>17767</v>
       </c>
       <c r="H2">
-        <v>141008</v>
+        <v>62.71</v>
       </c>
       <c r="I2">
-        <v>17767</v>
-      </c>
-      <c r="J2">
-        <v>927.33</v>
-      </c>
-      <c r="K2">
-        <v>10.41</v>
-      </c>
-      <c r="L2">
-        <v>62.71</v>
+        <v>15232</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>4862</v>
       </c>
@@ -1103,35 +1069,26 @@
       <c r="C3">
         <v>2259</v>
       </c>
-      <c r="D3">
-        <v>138.2</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>1013567</v>
       </c>
+      <c r="E3">
+        <v>32189</v>
+      </c>
       <c r="F3">
-        <v>32189</v>
+        <v>141212</v>
       </c>
       <c r="G3">
-        <v>30.2</v>
+        <v>19064</v>
       </c>
       <c r="H3">
-        <v>141212</v>
+        <v>63.89</v>
       </c>
       <c r="I3">
-        <v>19064</v>
-      </c>
-      <c r="J3">
-        <v>814.33</v>
-      </c>
-      <c r="K3">
-        <v>8.52</v>
-      </c>
-      <c r="L3">
-        <v>63.89</v>
+        <v>17553</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>5806</v>
       </c>
@@ -1141,35 +1098,26 @@
       <c r="C4">
         <v>2733</v>
       </c>
-      <c r="D4">
-        <v>155.4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>1149237</v>
       </c>
+      <c r="E4">
+        <v>35128</v>
+      </c>
       <c r="F4">
-        <v>35128</v>
+        <v>141260</v>
       </c>
       <c r="G4">
-        <v>29.8</v>
+        <v>20056</v>
       </c>
       <c r="H4">
-        <v>141260</v>
+        <v>64.72</v>
       </c>
       <c r="I4">
-        <v>20056</v>
-      </c>
-      <c r="J4">
-        <v>764.3</v>
-      </c>
-      <c r="K4">
-        <v>7.52</v>
-      </c>
-      <c r="L4">
-        <v>64.72</v>
+        <v>22536</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>6536</v>
       </c>
@@ -1179,35 +1127,26 @@
       <c r="C5">
         <v>3069</v>
       </c>
-      <c r="D5">
-        <v>173.2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>1204724</v>
       </c>
+      <c r="E5">
+        <v>36883</v>
+      </c>
       <c r="F5">
-        <v>36883</v>
+        <v>141175</v>
       </c>
       <c r="G5">
-        <v>30.5</v>
+        <v>20978</v>
       </c>
       <c r="H5">
-        <v>141175</v>
+        <v>65.22</v>
       </c>
       <c r="I5">
-        <v>20978</v>
-      </c>
-      <c r="J5">
-        <v>683.5</v>
-      </c>
-      <c r="K5">
-        <v>6.77</v>
-      </c>
-      <c r="L5">
-        <v>65.22</v>
+        <v>27303</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>6980</v>
       </c>
@@ -1217,32 +1156,23 @@
       <c r="C6">
         <v>3264</v>
       </c>
-      <c r="D6">
-        <v>190</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1">
         <v>1260582.1</v>
       </c>
+      <c r="E6">
+        <v>39218</v>
+      </c>
       <c r="F6">
-        <v>39218</v>
+        <v>140967</v>
       </c>
       <c r="G6">
-        <v>29.8</v>
+        <v>21676</v>
       </c>
       <c r="H6">
-        <v>140967</v>
+        <v>66.16</v>
       </c>
       <c r="I6">
-        <v>21676</v>
-      </c>
-      <c r="J6">
-        <v>768.21</v>
-      </c>
-      <c r="K6">
-        <v>6.39</v>
-      </c>
-      <c r="L6">
-        <v>66.16</v>
+        <v>29416</v>
       </c>
     </row>
   </sheetData>
